--- a/data/hanzo-cloud/hanzo-cloud_structure.xlsx
+++ b/data/hanzo-cloud/hanzo-cloud_structure.xlsx
@@ -37,34 +37,406 @@
     <t>Weight</t>
   </si>
   <si>
+    <t>hanzo-cloud-system</t>
+  </si>
+  <si>
+    <t>com.hanzo.system.controller.SysUserController</t>
+  </si>
+  <si>
+    <t>hanzo-cloud-common</t>
+  </si>
+  <si>
+    <t>com.hanzo.common.model.HanZoLoginUser</t>
+  </si>
+  <si>
+    <t>getUserList(com.hanzo.system.dto.SysUserQueryParam)</t>
+  </si>
+  <si>
+    <t>getUsername()</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>com.hanzo.common.dto.CommonLog</t>
+  </si>
+  <si>
+    <t>setCreateBy(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.hanzo.system.controller.SysRoleController</t>
+  </si>
+  <si>
+    <t>com.hanzo.common.api.CommonResult</t>
+  </si>
+  <si>
+    <t>addRole(com.hanzo.system.entity.SysRole)</t>
+  </si>
+  <si>
+    <t>success()</t>
+  </si>
+  <si>
+    <t>com.hanzo.system.service.impl.RedisClientDetailsService</t>
+  </si>
+  <si>
+    <t>com.hanzo.common.service.RedisService</t>
+  </si>
+  <si>
+    <t>cacheAndGetClient(java.lang.String)</t>
+  </si>
+  <si>
+    <t>hSet(java.lang.String, java.lang.String, java.lang.Object)</t>
+  </si>
+  <si>
+    <t>deleteUsers(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.hanzo.common.context.BaseUserContext</t>
+  </si>
+  <si>
+    <t>getUser()</t>
+  </si>
+  <si>
+    <t>com.hanzo.common.api.CommonPage</t>
+  </si>
+  <si>
+    <t>getRoleList(com.hanzo.system.dto.SysRoleQueryParam)</t>
+  </si>
+  <si>
+    <t>restPage(java.util.List)</t>
+  </si>
+  <si>
+    <t>updateUser(com.hanzo.system.entity.SysUser)</t>
+  </si>
+  <si>
+    <t>com.hanzo.system.service.impl.SysUserServiceImpl</t>
+  </si>
+  <si>
+    <t>updateAvatar(java.lang.String)</t>
+  </si>
+  <si>
+    <t>getUserId()</t>
+  </si>
+  <si>
+    <t>com.hanzo.system.controller.OauthClientDetailsController</t>
+  </si>
+  <si>
+    <t>deleteClient(java.lang.String)</t>
+  </si>
+  <si>
+    <t>checkRoleName(java.lang.String)</t>
+  </si>
+  <si>
+    <t>success(java.lang.Object)</t>
+  </si>
+  <si>
+    <t>deleteRoles(java.lang.String)</t>
+  </si>
+  <si>
+    <t>hanzo-auth-client</t>
+  </si>
+  <si>
+    <t>com.hanzo.client.util.AuthUtil</t>
+  </si>
+  <si>
+    <t>updatePassword(java.lang.String)</t>
+  </si>
+  <si>
+    <t>getLoginUserInfo()</t>
+  </si>
+  <si>
+    <t>com.hanzo.system.controller.SysSocialUserController</t>
+  </si>
+  <si>
+    <t>findUserSocialBindInfo(java.lang.String)</t>
+  </si>
+  <si>
+    <t>removeRedisCache(java.lang.String)</t>
+  </si>
+  <si>
+    <t>hDel(java.lang.String, java.lang.Object[])</t>
+  </si>
+  <si>
+    <t>checkUserName(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.hanzo.system.controller.SysMenuController</t>
+  </si>
+  <si>
+    <t>updateMenu(com.hanzo.system.entity.SysMenu)</t>
+  </si>
+  <si>
+    <t>getRoleOptions()</t>
+  </si>
+  <si>
+    <t>updateProfile(com.hanzo.system.dto.SysUserUpdateProfileParam)</t>
+  </si>
+  <si>
+    <t>updateClient(com.hanzo.system.entity.OauthClientDetails)</t>
+  </si>
+  <si>
+    <t>com.hanzo.system.controller.SysDeptController</t>
+  </si>
+  <si>
+    <t>getDeptList(com.hanzo.system.dto.SysDeptQueryParam)</t>
+  </si>
+  <si>
+    <t>getMenuList(com.hanzo.system.dto.SysMenuQueryParam)</t>
+  </si>
+  <si>
+    <t>checkPassword(java.lang.String)</t>
+  </si>
+  <si>
+    <t>updateRole(com.hanzo.system.entity.SysRole)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>com.hanzo.system.service.impl.SysRoleServiceImpl</t>
+  </si>
+  <si>
+    <t>com.hanzo.common.util.SortUtil</t>
+  </si>
+  <si>
+    <t>handlePageSort(com.hanzo.common.model.QueryRequest, java.lang.String, java.lang.String, boolean)</t>
+  </si>
+  <si>
+    <t>deleteMenus(java.lang.String)</t>
+  </si>
+  <si>
+    <t>bind(com.hanzo.system.dto.SocialBindUserParam, com.hanzo.system.dto.AuthUser)</t>
+  </si>
+  <si>
+    <t>loadClientByClientId(java.lang.String)</t>
+  </si>
+  <si>
+    <t>hGet(java.lang.String, java.lang.String)</t>
+  </si>
+  <si>
+    <t>getClientList(com.hanzo.system.dto.OauthClientQueryParam)</t>
+  </si>
+  <si>
+    <t>getOriginClientSecret(java.lang.String)</t>
+  </si>
+  <si>
+    <t>deleteDept(java.lang.String)</t>
+  </si>
+  <si>
+    <t>updateDept(com.hanzo.system.entity.SysDept)</t>
+  </si>
+  <si>
+    <t>addUser(com.hanzo.system.entity.SysUser)</t>
+  </si>
+  <si>
+    <t>resetPassword(java.lang.String)</t>
+  </si>
+  <si>
+    <t>addClient(com.hanzo.system.entity.OauthClientDetails)</t>
+  </si>
+  <si>
+    <t>com.hanzo.system.service.impl.SysDeptServiceImpl</t>
+  </si>
+  <si>
+    <t>getAllDeptList(com.hanzo.system.dto.SysDeptQueryParam)</t>
+  </si>
+  <si>
+    <t>handleWrapperSort(com.hanzo.common.model.QueryRequest, com.baomidou.mybatisplus.core.conditions.query.QueryWrapper, java.lang.String, java.lang.String, boolean)</t>
+  </si>
+  <si>
+    <t>lambda$loadAllClientToCache$0(org.springframework.security.oauth2.provider.ClientDetails)</t>
+  </si>
+  <si>
+    <t>addDept(com.hanzo.system.entity.SysDept)</t>
+  </si>
+  <si>
+    <t>loadAllClientToCache()</t>
+  </si>
+  <si>
+    <t>hasKey(java.lang.String)</t>
+  </si>
+  <si>
+    <t>unbind(com.hanzo.system.dto.SocialBindUserParam, java.lang.String)</t>
+  </si>
+  <si>
+    <t>addMenu(com.hanzo.system.entity.SysMenu)</t>
+  </si>
+  <si>
+    <t>com.hanzo.client.util.SecurityUtil</t>
+  </si>
+  <si>
+    <t>getUsername(javax.servlet.http.HttpServletRequest)</t>
+  </si>
+  <si>
+    <t>setMobile(java.lang.String)</t>
+  </si>
+  <si>
+    <t>setUserId(java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>setType(java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>com.hanzo.client.interceptor.HanZoServerProtectInterceptor</t>
+  </si>
+  <si>
+    <t>preHandle(javax.servlet.http.HttpServletRequest, javax.servlet.http.HttpServletResponse, java.lang.Object)</t>
+  </si>
+  <si>
+    <t>gatewayForbidden(java.lang.Object)</t>
+  </si>
+  <si>
+    <t>com.hanzo.common.util.ResponseUtil</t>
+  </si>
+  <si>
+    <t>makeJsonResponse(javax.servlet.http.HttpServletResponse, int, java.lang.Object)</t>
+  </si>
+  <si>
+    <t>setDeptName(java.lang.String)</t>
+  </si>
+  <si>
+    <t>setUser(com.hanzo.common.model.HanZoLoginUser)</t>
+  </si>
+  <si>
+    <t>com.hanzo.client.handler.HanZoAuthExceptionEntryPoint</t>
+  </si>
+  <si>
+    <t>commence(javax.servlet.http.HttpServletRequest, javax.servlet.http.HttpServletResponse, org.springframework.security.core.AuthenticationException)</t>
+  </si>
+  <si>
+    <t>com.hanzo.client.handler.HanZoAccessDeniedHandler</t>
+  </si>
+  <si>
+    <t>handle(javax.servlet.http.HttpServletRequest, javax.servlet.http.HttpServletResponse, org.springframework.security.access.AccessDeniedException)</t>
+  </si>
+  <si>
+    <t>setUsername(java.lang.String)</t>
+  </si>
+  <si>
+    <t>setRoleId(java.lang.String)</t>
+  </si>
+  <si>
+    <t>forbidden(java.lang.Object)</t>
+  </si>
+  <si>
+    <t>setAvatar(java.lang.String)</t>
+  </si>
+  <si>
+    <t>unauthorized(java.lang.Object)</t>
+  </si>
+  <si>
+    <t>hanzo-starter-log</t>
+  </si>
+  <si>
+    <t>com.hanzo.starter.log.aspect.LogAspect</t>
+  </si>
+  <si>
+    <t>com.hanzo.common.util.TraceUtil</t>
+  </si>
+  <si>
+    <t>logAfterThrowing(org.aspectj.lang.JoinPoint, java.lang.Throwable)</t>
+  </si>
+  <si>
+    <t>getTraceId(javax.servlet.http.HttpServletRequest)</t>
+  </si>
+  <si>
+    <t>recordLog(org.aspectj.lang.ProceedingJoinPoint)</t>
+  </si>
+  <si>
+    <t>setType(java.lang.String)</t>
+  </si>
+  <si>
+    <t>com.hanzo.common.util.RequestHolder</t>
+  </si>
+  <si>
+    <t>getHttpServletRequest()</t>
+  </si>
+  <si>
+    <t>com.hanzo.common.util.ThrowableUtil</t>
+  </si>
+  <si>
+    <t>getStackTrace(java.lang.Throwable)</t>
+  </si>
+  <si>
+    <t>setParams(java.lang.String)</t>
+  </si>
+  <si>
+    <t>setUrl(java.lang.String)</t>
+  </si>
+  <si>
+    <t>setTraceId(java.lang.String)</t>
+  </si>
+  <si>
+    <t>setIp(java.lang.String)</t>
+  </si>
+  <si>
+    <t>setTitle(java.lang.String)</t>
+  </si>
+  <si>
+    <t>getHttpServletRequestIpAddress()</t>
+  </si>
+  <si>
+    <t>com.hanzo.common.util.IPUtil</t>
+  </si>
+  <si>
+    <t>getCityInfo(java.lang.String)</t>
+  </si>
+  <si>
+    <t>setExecuteTime(java.lang.Long)</t>
+  </si>
+  <si>
+    <t>setException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>setMethod(java.lang.String)</t>
+  </si>
+  <si>
+    <t>mdcTraceId(java.lang.String)</t>
+  </si>
+  <si>
+    <t>setOperation(java.lang.String)</t>
+  </si>
+  <si>
+    <t>setLocation(java.lang.String)</t>
+  </si>
+  <si>
     <t>hanzo-demo-test</t>
   </si>
   <si>
     <t>com.hanzo.demo.controller.test</t>
   </si>
   <si>
-    <t>hanzo-cloud-common</t>
-  </si>
-  <si>
-    <t>com.hanzo.common.api.CommonResult</t>
-  </si>
-  <si>
     <t>getMysql()</t>
   </si>
   <si>
-    <t>success(java.lang.Object)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>getFirst()</t>
   </si>
   <si>
-    <t>com.hanzo.common.api.CommonPage</t>
-  </si>
-  <si>
-    <t>restPage(java.util.List)</t>
+    <t>hanzo-gateway-server</t>
+  </si>
+  <si>
+    <t>com.hanzo.gateway.filter.PreRequestFilter</t>
+  </si>
+  <si>
+    <t>com.hanzo.common.util.UUIDUtil</t>
+  </si>
+  <si>
+    <t>filter(org.springframework.web.server.ServerWebExchange, org.springframework.cloud.gateway.filter.GatewayFilterChain)</t>
+  </si>
+  <si>
+    <t>shortUuid()</t>
+  </si>
+  <si>
+    <t>com.hanzo.gateway.controller.FallbackController</t>
+  </si>
+  <si>
+    <t>fallBack(java.lang.String)</t>
+  </si>
+  <si>
+    <t>failed(java.lang.String)</t>
   </si>
   <si>
     <t>hanzo-log-producer</t>
@@ -83,378 +455,6 @@
   </si>
   <si>
     <t>sendLogMessage()</t>
-  </si>
-  <si>
-    <t>failed(java.lang.String)</t>
-  </si>
-  <si>
-    <t>hanzo-cloud-system</t>
-  </si>
-  <si>
-    <t>com.hanzo.system.controller.SysUserController</t>
-  </si>
-  <si>
-    <t>com.hanzo.common.model.HanZoLoginUser</t>
-  </si>
-  <si>
-    <t>getUserList(com.hanzo.system.dto.SysUserQueryParam)</t>
-  </si>
-  <si>
-    <t>getUsername()</t>
-  </si>
-  <si>
-    <t>com.hanzo.common.dto.CommonLog</t>
-  </si>
-  <si>
-    <t>setCreateBy(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.hanzo.system.controller.SysRoleController</t>
-  </si>
-  <si>
-    <t>addRole(com.hanzo.system.entity.SysRole)</t>
-  </si>
-  <si>
-    <t>success()</t>
-  </si>
-  <si>
-    <t>com.hanzo.system.service.impl.RedisClientDetailsService</t>
-  </si>
-  <si>
-    <t>com.hanzo.common.service.RedisService</t>
-  </si>
-  <si>
-    <t>cacheAndGetClient(java.lang.String)</t>
-  </si>
-  <si>
-    <t>hSet(java.lang.String, java.lang.String, java.lang.Object)</t>
-  </si>
-  <si>
-    <t>deleteUsers(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.hanzo.common.context.BaseUserContext</t>
-  </si>
-  <si>
-    <t>getUser()</t>
-  </si>
-  <si>
-    <t>getRoleList(com.hanzo.system.dto.SysRoleQueryParam)</t>
-  </si>
-  <si>
-    <t>updateUser(com.hanzo.system.entity.SysUser)</t>
-  </si>
-  <si>
-    <t>com.hanzo.system.service.impl.SysUserServiceImpl</t>
-  </si>
-  <si>
-    <t>updateAvatar(java.lang.String)</t>
-  </si>
-  <si>
-    <t>getUserId()</t>
-  </si>
-  <si>
-    <t>com.hanzo.system.controller.OauthClientDetailsController</t>
-  </si>
-  <si>
-    <t>deleteClient(java.lang.String)</t>
-  </si>
-  <si>
-    <t>checkRoleName(java.lang.String)</t>
-  </si>
-  <si>
-    <t>deleteRoles(java.lang.String)</t>
-  </si>
-  <si>
-    <t>hanzo-auth-client</t>
-  </si>
-  <si>
-    <t>com.hanzo.client.util.AuthUtil</t>
-  </si>
-  <si>
-    <t>updatePassword(java.lang.String)</t>
-  </si>
-  <si>
-    <t>getLoginUserInfo()</t>
-  </si>
-  <si>
-    <t>com.hanzo.system.controller.SysSocialUserController</t>
-  </si>
-  <si>
-    <t>findUserSocialBindInfo(java.lang.String)</t>
-  </si>
-  <si>
-    <t>removeRedisCache(java.lang.String)</t>
-  </si>
-  <si>
-    <t>hDel(java.lang.String, java.lang.Object[])</t>
-  </si>
-  <si>
-    <t>checkUserName(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.hanzo.system.controller.SysMenuController</t>
-  </si>
-  <si>
-    <t>updateMenu(com.hanzo.system.entity.SysMenu)</t>
-  </si>
-  <si>
-    <t>getRoleOptions()</t>
-  </si>
-  <si>
-    <t>updateProfile(com.hanzo.system.dto.SysUserUpdateProfileParam)</t>
-  </si>
-  <si>
-    <t>updateClient(com.hanzo.system.entity.OauthClientDetails)</t>
-  </si>
-  <si>
-    <t>com.hanzo.system.controller.SysDeptController</t>
-  </si>
-  <si>
-    <t>getDeptList(com.hanzo.system.dto.SysDeptQueryParam)</t>
-  </si>
-  <si>
-    <t>getMenuList(com.hanzo.system.dto.SysMenuQueryParam)</t>
-  </si>
-  <si>
-    <t>checkPassword(java.lang.String)</t>
-  </si>
-  <si>
-    <t>updateRole(com.hanzo.system.entity.SysRole)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>com.hanzo.system.service.impl.SysRoleServiceImpl</t>
-  </si>
-  <si>
-    <t>com.hanzo.common.util.SortUtil</t>
-  </si>
-  <si>
-    <t>handlePageSort(com.hanzo.common.model.QueryRequest, java.lang.String, java.lang.String, boolean)</t>
-  </si>
-  <si>
-    <t>deleteMenus(java.lang.String)</t>
-  </si>
-  <si>
-    <t>bind(com.hanzo.system.dto.SocialBindUserParam, com.hanzo.system.dto.AuthUser)</t>
-  </si>
-  <si>
-    <t>loadClientByClientId(java.lang.String)</t>
-  </si>
-  <si>
-    <t>hGet(java.lang.String, java.lang.String)</t>
-  </si>
-  <si>
-    <t>getClientList(com.hanzo.system.dto.OauthClientQueryParam)</t>
-  </si>
-  <si>
-    <t>getOriginClientSecret(java.lang.String)</t>
-  </si>
-  <si>
-    <t>deleteDept(java.lang.String)</t>
-  </si>
-  <si>
-    <t>updateDept(com.hanzo.system.entity.SysDept)</t>
-  </si>
-  <si>
-    <t>addUser(com.hanzo.system.entity.SysUser)</t>
-  </si>
-  <si>
-    <t>resetPassword(java.lang.String)</t>
-  </si>
-  <si>
-    <t>addClient(com.hanzo.system.entity.OauthClientDetails)</t>
-  </si>
-  <si>
-    <t>com.hanzo.system.service.impl.SysDeptServiceImpl</t>
-  </si>
-  <si>
-    <t>getAllDeptList(com.hanzo.system.dto.SysDeptQueryParam)</t>
-  </si>
-  <si>
-    <t>handleWrapperSort(com.hanzo.common.model.QueryRequest, com.baomidou.mybatisplus.core.conditions.query.QueryWrapper, java.lang.String, java.lang.String, boolean)</t>
-  </si>
-  <si>
-    <t>lambda$loadAllClientToCache$0(org.springframework.security.oauth2.provider.ClientDetails)</t>
-  </si>
-  <si>
-    <t>addDept(com.hanzo.system.entity.SysDept)</t>
-  </si>
-  <si>
-    <t>loadAllClientToCache()</t>
-  </si>
-  <si>
-    <t>hasKey(java.lang.String)</t>
-  </si>
-  <si>
-    <t>unbind(com.hanzo.system.dto.SocialBindUserParam, java.lang.String)</t>
-  </si>
-  <si>
-    <t>addMenu(com.hanzo.system.entity.SysMenu)</t>
-  </si>
-  <si>
-    <t>com.hanzo.client.util.SecurityUtil</t>
-  </si>
-  <si>
-    <t>getUsername(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>setMobile(java.lang.String)</t>
-  </si>
-  <si>
-    <t>setUserId(java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>toString()</t>
-  </si>
-  <si>
-    <t>setType(java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>com.hanzo.client.interceptor.HanZoServerProtectInterceptor</t>
-  </si>
-  <si>
-    <t>preHandle(javax.servlet.http.HttpServletRequest, javax.servlet.http.HttpServletResponse, java.lang.Object)</t>
-  </si>
-  <si>
-    <t>gatewayForbidden(java.lang.Object)</t>
-  </si>
-  <si>
-    <t>com.hanzo.common.util.ResponseUtil</t>
-  </si>
-  <si>
-    <t>makeJsonResponse(javax.servlet.http.HttpServletResponse, int, java.lang.Object)</t>
-  </si>
-  <si>
-    <t>setDeptName(java.lang.String)</t>
-  </si>
-  <si>
-    <t>setUser(com.hanzo.common.model.HanZoLoginUser)</t>
-  </si>
-  <si>
-    <t>com.hanzo.client.handler.HanZoAuthExceptionEntryPoint</t>
-  </si>
-  <si>
-    <t>commence(javax.servlet.http.HttpServletRequest, javax.servlet.http.HttpServletResponse, org.springframework.security.core.AuthenticationException)</t>
-  </si>
-  <si>
-    <t>com.hanzo.client.handler.HanZoAccessDeniedHandler</t>
-  </si>
-  <si>
-    <t>handle(javax.servlet.http.HttpServletRequest, javax.servlet.http.HttpServletResponse, org.springframework.security.access.AccessDeniedException)</t>
-  </si>
-  <si>
-    <t>setUsername(java.lang.String)</t>
-  </si>
-  <si>
-    <t>setRoleId(java.lang.String)</t>
-  </si>
-  <si>
-    <t>forbidden(java.lang.Object)</t>
-  </si>
-  <si>
-    <t>setAvatar(java.lang.String)</t>
-  </si>
-  <si>
-    <t>unauthorized(java.lang.Object)</t>
-  </si>
-  <si>
-    <t>hanzo-gateway-server</t>
-  </si>
-  <si>
-    <t>com.hanzo.gateway.filter.PreRequestFilter</t>
-  </si>
-  <si>
-    <t>com.hanzo.common.util.UUIDUtil</t>
-  </si>
-  <si>
-    <t>filter(org.springframework.web.server.ServerWebExchange, org.springframework.cloud.gateway.filter.GatewayFilterChain)</t>
-  </si>
-  <si>
-    <t>shortUuid()</t>
-  </si>
-  <si>
-    <t>com.hanzo.gateway.controller.FallbackController</t>
-  </si>
-  <si>
-    <t>fallBack(java.lang.String)</t>
-  </si>
-  <si>
-    <t>hanzo-starter-log</t>
-  </si>
-  <si>
-    <t>com.hanzo.starter.log.aspect.LogAspect</t>
-  </si>
-  <si>
-    <t>com.hanzo.common.util.TraceUtil</t>
-  </si>
-  <si>
-    <t>logAfterThrowing(org.aspectj.lang.JoinPoint, java.lang.Throwable)</t>
-  </si>
-  <si>
-    <t>getTraceId(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>recordLog(org.aspectj.lang.ProceedingJoinPoint)</t>
-  </si>
-  <si>
-    <t>setType(java.lang.String)</t>
-  </si>
-  <si>
-    <t>com.hanzo.common.util.RequestHolder</t>
-  </si>
-  <si>
-    <t>getHttpServletRequest()</t>
-  </si>
-  <si>
-    <t>com.hanzo.common.util.ThrowableUtil</t>
-  </si>
-  <si>
-    <t>getStackTrace(java.lang.Throwable)</t>
-  </si>
-  <si>
-    <t>setParams(java.lang.String)</t>
-  </si>
-  <si>
-    <t>setUrl(java.lang.String)</t>
-  </si>
-  <si>
-    <t>setTraceId(java.lang.String)</t>
-  </si>
-  <si>
-    <t>setIp(java.lang.String)</t>
-  </si>
-  <si>
-    <t>setTitle(java.lang.String)</t>
-  </si>
-  <si>
-    <t>getHttpServletRequestIpAddress()</t>
-  </si>
-  <si>
-    <t>com.hanzo.common.util.IPUtil</t>
-  </si>
-  <si>
-    <t>getCityInfo(java.lang.String)</t>
-  </si>
-  <si>
-    <t>setExecuteTime(java.lang.Long)</t>
-  </si>
-  <si>
-    <t>setException(java.lang.String)</t>
-  </si>
-  <si>
-    <t>setMethod(java.lang.String)</t>
-  </si>
-  <si>
-    <t>mdcTraceId(java.lang.String)</t>
-  </si>
-  <si>
-    <t>setOperation(java.lang.String)</t>
-  </si>
-  <si>
-    <t>setLocation(java.lang.String)</t>
   </si>
   <si>
     <t>hanzo-auth-center</t>
@@ -694,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>13</v>
@@ -711,19 +711,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>13</v>
@@ -731,22 +731,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>13</v>
@@ -754,22 +754,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s" s="0">
         <v>13</v>
@@ -777,22 +777,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s" s="0">
         <v>13</v>
@@ -800,22 +800,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s" s="0">
         <v>13</v>
@@ -823,22 +823,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>13</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>31</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>34</v>
@@ -878,13 +878,13 @@
         <v>9</v>
       </c>
       <c r="D11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="E11" t="s" s="0">
-        <v>36</v>
-      </c>
       <c r="F11" t="s" s="0">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s" s="0">
         <v>13</v>
@@ -892,22 +892,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s" s="0">
         <v>13</v>
@@ -915,22 +915,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s" s="0">
         <v>13</v>
@@ -938,22 +938,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s" s="0">
         <v>41</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s" s="0">
         <v>13</v>
@@ -961,22 +961,22 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s" s="0">
         <v>13</v>
@@ -984,22 +984,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s" s="0">
         <v>13</v>
@@ -1007,22 +1007,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s" s="0">
         <v>13</v>
@@ -1030,22 +1030,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s" s="0">
         <v>13</v>
@@ -1053,22 +1053,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s" s="0">
         <v>13</v>
@@ -1076,22 +1076,22 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="E20" t="s" s="0">
-        <v>52</v>
-      </c>
       <c r="F20" t="s" s="0">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s" s="0">
         <v>13</v>
@@ -1099,22 +1099,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s" s="0">
         <v>13</v>
@@ -1122,22 +1122,22 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s" s="0">
         <v>13</v>
@@ -1145,22 +1145,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s" s="0">
         <v>13</v>
@@ -1168,22 +1168,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s" s="0">
         <v>13</v>
@@ -1191,22 +1191,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s" s="0">
         <v>13</v>
@@ -1214,45 +1214,45 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="0">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s" s="0">
         <v>13</v>
@@ -1260,22 +1260,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s" s="0">
         <v>13</v>
@@ -1283,22 +1283,22 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s" s="0">
         <v>13</v>
@@ -1306,22 +1306,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s" s="0">
         <v>13</v>
@@ -1329,22 +1329,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s" s="0">
         <v>13</v>
@@ -1352,45 +1352,45 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s" s="0">
         <v>13</v>
@@ -1398,22 +1398,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="0">
         <v>13</v>
@@ -1421,22 +1421,22 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G35" t="s" s="0">
         <v>13</v>
@@ -1444,22 +1444,22 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s" s="0">
         <v>13</v>
@@ -1467,22 +1467,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s" s="0">
         <v>13</v>
@@ -1490,22 +1490,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s" s="0">
         <v>13</v>
@@ -1513,22 +1513,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s" s="0">
         <v>13</v>
@@ -1536,22 +1536,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s" s="0">
         <v>13</v>
@@ -1559,22 +1559,22 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s" s="0">
         <v>13</v>
@@ -1582,22 +1582,22 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G42" t="s" s="0">
         <v>13</v>
@@ -1605,22 +1605,22 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s" s="0">
         <v>13</v>
@@ -1628,22 +1628,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="G44" t="s" s="0">
         <v>13</v>
@@ -1651,22 +1651,22 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G45" t="s" s="0">
         <v>13</v>
@@ -1674,10 +1674,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>9</v>
@@ -1686,7 +1686,7 @@
         <v>10</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="F46" t="s" s="0">
         <v>33</v>
@@ -1697,22 +1697,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="0">
         <v>13</v>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>9</v>
@@ -1732,7 +1732,7 @@
         <v>10</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F48" t="s" s="0">
         <v>33</v>
@@ -1743,22 +1743,22 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s" s="0">
         <v>13</v>
@@ -1766,22 +1766,22 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F50" t="s" s="0">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s" s="0">
         <v>13</v>
@@ -1789,22 +1789,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="0">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="0">
         <v>13</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s" s="0">
         <v>43</v>
@@ -1821,13 +1821,13 @@
         <v>9</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s" s="0">
         <v>13</v>
@@ -1835,22 +1835,22 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s" s="0">
         <v>13</v>
@@ -1858,22 +1858,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s" s="0">
         <v>13</v>
@@ -1881,10 +1881,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>9</v>
@@ -1893,10 +1893,10 @@
         <v>10</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="F55" t="s" s="0">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="0">
         <v>13</v>
@@ -1904,10 +1904,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>9</v>
@@ -1916,10 +1916,10 @@
         <v>10</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F56" t="s" s="0">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="G56" t="s" s="0">
         <v>13</v>
@@ -1927,22 +1927,22 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s" s="0">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="0">
         <v>13</v>
@@ -1950,10 +1950,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>9</v>
@@ -1962,10 +1962,10 @@
         <v>10</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F58" t="s" s="0">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="G58" t="s" s="0">
         <v>13</v>
@@ -1973,22 +1973,22 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F59" t="s" s="0">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G59" t="s" s="0">
         <v>13</v>
@@ -1996,22 +1996,22 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="F60" t="s" s="0">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s" s="0">
         <v>13</v>
@@ -2019,22 +2019,22 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D61" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s" s="0">
         <v>26</v>
-      </c>
-      <c r="E61" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="F61" t="s" s="0">
-        <v>95</v>
       </c>
       <c r="G61" t="s" s="0">
         <v>13</v>
@@ -2042,22 +2042,22 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F62" t="s" s="0">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G62" t="s" s="0">
         <v>13</v>
@@ -2065,22 +2065,22 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B63" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F63" t="s" s="0">
         <v>93</v>
-      </c>
-      <c r="C63" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D63" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="E63" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="F63" t="s" s="0">
-        <v>97</v>
       </c>
       <c r="G63" t="s" s="0">
         <v>13</v>
@@ -2088,22 +2088,22 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F64" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="F64" t="s" s="0">
-        <v>98</v>
       </c>
       <c r="G64" t="s" s="0">
         <v>13</v>
@@ -2111,22 +2111,22 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="E65" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F65" t="s" s="0">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="G65" t="s" s="0">
         <v>13</v>
@@ -2134,22 +2134,22 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E66" t="s" s="0">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F66" t="s" s="0">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G66" t="s" s="0">
         <v>13</v>
@@ -2157,22 +2157,22 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s" s="0">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F67" t="s" s="0">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="G67" t="s" s="0">
         <v>13</v>
@@ -2180,45 +2180,45 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="F68" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="F68" t="s" s="0">
-        <v>103</v>
-      </c>
       <c r="G68" t="s" s="0">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F69" t="s" s="0">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G69" t="s" s="0">
         <v>13</v>
@@ -2226,22 +2226,22 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s" s="0">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F70" t="s" s="0">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G70" t="s" s="0">
         <v>13</v>
@@ -2249,19 +2249,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="E71" t="s" s="0">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F71" t="s" s="0">
         <v>103</v>
@@ -2272,45 +2272,45 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F72" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="C72" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="E72" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="F72" t="s" s="0">
-        <v>103</v>
-      </c>
       <c r="G72" t="s" s="0">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E73" t="s" s="0">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F73" t="s" s="0">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="G73" t="s" s="0">
         <v>13</v>
@@ -2318,39 +2318,39 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E74" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F74" t="s" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G74" t="s" s="0">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="E75" t="s" s="0">
         <v>109</v>
@@ -2364,22 +2364,22 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="E76" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F76" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G76" t="s" s="0">
         <v>13</v>
@@ -2387,22 +2387,22 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E77" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F77" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G77" t="s" s="0">
         <v>13</v>
@@ -2410,22 +2410,22 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B78" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F78" t="s" s="0">
         <v>116</v>
-      </c>
-      <c r="C78" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D78" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="E78" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="F78" t="s" s="0">
-        <v>119</v>
       </c>
       <c r="G78" t="s" s="0">
         <v>13</v>
@@ -2433,22 +2433,22 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s" s="0">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F79" t="s" s="0">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="G79" t="s" s="0">
         <v>13</v>
@@ -2456,45 +2456,45 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="E80" t="s" s="0">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F80" t="s" s="0">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G80" t="s" s="0">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E81" t="s" s="0">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F81" t="s" s="0">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="G81" t="s" s="0">
         <v>13</v>
@@ -2502,22 +2502,22 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E82" t="s" s="0">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F82" t="s" s="0">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="G82" t="s" s="0">
         <v>13</v>
@@ -2525,22 +2525,22 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="E83" t="s" s="0">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F83" t="s" s="0">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G83" t="s" s="0">
         <v>13</v>
@@ -2548,22 +2548,22 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E84" t="s" s="0">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F84" t="s" s="0">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G84" t="s" s="0">
         <v>13</v>
@@ -2571,22 +2571,22 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F85" t="s" s="0">
         <v>122</v>
-      </c>
-      <c r="B85" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="C85" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D85" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E85" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F85" t="s" s="0">
-        <v>133</v>
       </c>
       <c r="G85" t="s" s="0">
         <v>13</v>
@@ -2594,22 +2594,22 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E86" t="s" s="0">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F86" t="s" s="0">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="G86" t="s" s="0">
         <v>13</v>
@@ -2617,22 +2617,22 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F87" t="s" s="0">
         <v>123</v>
-      </c>
-      <c r="C87" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D87" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E87" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F87" t="s" s="0">
-        <v>134</v>
       </c>
       <c r="G87" t="s" s="0">
         <v>13</v>
@@ -2640,22 +2640,22 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E88" t="s" s="0">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F88" t="s" s="0">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="G88" t="s" s="0">
         <v>13</v>
@@ -2663,22 +2663,22 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="E89" t="s" s="0">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F89" t="s" s="0">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="G89" t="s" s="0">
         <v>13</v>
@@ -2686,22 +2686,22 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E90" t="s" s="0">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F90" t="s" s="0">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="G90" t="s" s="0">
         <v>13</v>
@@ -2709,22 +2709,22 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="E91" t="s" s="0">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="F91" t="s" s="0">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="G91" t="s" s="0">
         <v>13</v>
@@ -2732,22 +2732,22 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s" s="0">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F92" t="s" s="0">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G92" t="s" s="0">
         <v>13</v>
@@ -2755,22 +2755,22 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="E93" t="s" s="0">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F93" t="s" s="0">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G93" t="s" s="0">
         <v>13</v>
@@ -2778,22 +2778,22 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F94" t="s" s="0">
         <v>127</v>
-      </c>
-      <c r="F94" t="s" s="0">
-        <v>135</v>
       </c>
       <c r="G94" t="s" s="0">
         <v>13</v>
@@ -2801,22 +2801,22 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B95" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F95" t="s" s="0">
         <v>123</v>
-      </c>
-      <c r="C95" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D95" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="E95" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="F95" t="s" s="0">
-        <v>141</v>
       </c>
       <c r="G95" t="s" s="0">
         <v>13</v>
@@ -2824,22 +2824,22 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s" s="0">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F96" t="s" s="0">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="G96" t="s" s="0">
         <v>13</v>
@@ -2847,22 +2847,22 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="E97" t="s" s="0">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F97" t="s" s="0">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G97" t="s" s="0">
         <v>13</v>
@@ -2870,22 +2870,22 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E98" t="s" s="0">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F98" t="s" s="0">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="G98" t="s" s="0">
         <v>13</v>
@@ -2893,22 +2893,22 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="E99" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F99" t="s" s="0">
         <v>125</v>
-      </c>
-      <c r="F99" t="s" s="0">
-        <v>130</v>
       </c>
       <c r="G99" t="s" s="0">
         <v>13</v>
@@ -2916,22 +2916,22 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F100" t="s" s="0">
         <v>122</v>
-      </c>
-      <c r="B100" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="C100" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="D100" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="E100" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="F100" t="s" s="0">
-        <v>144</v>
       </c>
       <c r="G100" t="s" s="0">
         <v>13</v>
@@ -2939,22 +2939,22 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D101" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E101" t="s" s="0">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F101" t="s" s="0">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G101" t="s" s="0">
         <v>13</v>
@@ -2962,22 +2962,22 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C102" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E102" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F102" t="s" s="0">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s" s="0">
         <v>13</v>
@@ -2985,22 +2985,22 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E103" t="s" s="0">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F103" t="s" s="0">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s" s="0">
         <v>13</v>
@@ -3008,22 +3008,22 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E104" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F104" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s" s="0">
         <v>13</v>
@@ -3031,22 +3031,22 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="E105" t="s" s="0">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F105" t="s" s="0">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G105" t="s" s="0">
         <v>13</v>
@@ -3054,22 +3054,22 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E106" t="s" s="0">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F106" t="s" s="0">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G106" t="s" s="0">
         <v>13</v>
@@ -3077,22 +3077,22 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="E107" t="s" s="0">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F107" t="s" s="0">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G107" t="s" s="0">
         <v>13</v>
@@ -3100,22 +3100,22 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D108" t="s" s="0">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="E108" t="s" s="0">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F108" t="s" s="0">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s" s="0">
         <v>13</v>
@@ -3123,22 +3123,22 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E109" t="s" s="0">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="F109" t="s" s="0">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G109" t="s" s="0">
         <v>13</v>
@@ -3155,7 +3155,7 @@
         <v>9</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E110" t="s" s="0">
         <v>149</v>
@@ -3178,7 +3178,7 @@
         <v>9</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E111" t="s" s="0">
         <v>152</v>
@@ -3201,13 +3201,13 @@
         <v>9</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E112" t="s" s="0">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F112" t="s" s="0">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G112" t="s" s="0">
         <v>13</v>
@@ -3224,13 +3224,13 @@
         <v>9</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E113" t="s" s="0">
         <v>156</v>
       </c>
       <c r="F113" t="s" s="0">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="G113" t="s" s="0">
         <v>157</v>
@@ -3276,7 +3276,7 @@
         <v>164</v>
       </c>
       <c r="F115" t="s" s="0">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="G115" t="s" s="0">
         <v>13</v>
@@ -3316,13 +3316,13 @@
         <v>9</v>
       </c>
       <c r="D117" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E117" t="s" s="0">
         <v>168</v>
       </c>
       <c r="F117" t="s" s="0">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s" s="0">
         <v>13</v>
@@ -3339,13 +3339,13 @@
         <v>9</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E118" t="s" s="0">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F118" t="s" s="0">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G118" t="s" s="0">
         <v>13</v>
@@ -3385,7 +3385,7 @@
         <v>9</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E120" t="s" s="0">
         <v>152</v>
@@ -3408,7 +3408,7 @@
         <v>9</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E121" t="s" s="0">
         <v>171</v>
@@ -3431,13 +3431,13 @@
         <v>9</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E122" t="s" s="0">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F122" t="s" s="0">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="G122" t="s" s="0">
         <v>13</v>
@@ -3460,7 +3460,7 @@
         <v>175</v>
       </c>
       <c r="F123" t="s" s="0">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="G123" t="s" s="0">
         <v>13</v>
@@ -3477,13 +3477,13 @@
         <v>9</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E124" t="s" s="0">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F124" t="s" s="0">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G124" t="s" s="0">
         <v>13</v>
@@ -3523,13 +3523,13 @@
         <v>9</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E126" t="s" s="0">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s" s="0">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G126" t="s" s="0">
         <v>13</v>
@@ -3546,7 +3546,7 @@
         <v>9</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E127" t="s" s="0">
         <v>171</v>
@@ -3569,13 +3569,13 @@
         <v>9</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E128" t="s" s="0">
         <v>179</v>
       </c>
       <c r="F128" t="s" s="0">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s" s="0">
         <v>13</v>
@@ -3592,13 +3592,13 @@
         <v>9</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E129" t="s" s="0">
         <v>181</v>
       </c>
       <c r="F129" t="s" s="0">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="G129" t="s" s="0">
         <v>13</v>
@@ -3638,7 +3638,7 @@
         <v>9</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E131" t="s" s="0">
         <v>152</v>
@@ -3661,13 +3661,13 @@
         <v>9</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E132" t="s" s="0">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F132" t="s" s="0">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G132" t="s" s="0">
         <v>13</v>
@@ -3707,13 +3707,13 @@
         <v>9</v>
       </c>
       <c r="D134" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E134" t="s" s="0">
         <v>186</v>
       </c>
       <c r="F134" t="s" s="0">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s" s="0">
         <v>13</v>
@@ -3730,7 +3730,7 @@
         <v>9</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="E135" t="s" s="0">
         <v>149</v>
@@ -3753,13 +3753,13 @@
         <v>9</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E136" t="s" s="0">
         <v>188</v>
       </c>
       <c r="F136" t="s" s="0">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s" s="0">
         <v>13</v>
@@ -3803,22 +3803,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s" s="0">
         <v>13</v>
@@ -3826,22 +3826,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>190</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>13</v>
